--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateBankcardNoError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateBankcardNoError.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="1575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${BankCardUtils.getBankCard(436742121737)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +85,18 @@
   </si>
   <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -457,7 +465,7 @@
     <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -477,36 +485,42 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateBankcardNoError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateBankcardNoError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>checkCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +93,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +456,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -485,7 +485,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -499,28 +499,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
